--- a/medicine/Enfance/Hezekiah_Butterworth/Hezekiah_Butterworth.xlsx
+++ b/medicine/Enfance/Hezekiah_Butterworth/Hezekiah_Butterworth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hezekiah Butterworth, né le 22 décembre 1839 à Warren, Rhode Island, États-Unis, mort le 5 septembre 1905 à Warren, est un écrivain américain, auteur de littérature d'enfance et de jeunesse.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille, des baptistes adeptes de Roger Williams, comptait parmi les fondateurs de Rhode Island.
 Hezekiah Butterworth a été conférencier, traitant de sujets allant de l'éducation à l'hymnologie ou tirés de ses propres voyages (Europe, Amérique du Sud, Cuba, Canada).
 Au début de sa carrière, il a publié des articles dans des journaux de premier plan, comme le New York Independent (en) et à partir de 1870, dans le Youth's Companion (en). Il écrivit pour l'Atlantic Monthly, le Harper's Magazine, le Christian Union.
 Il a écrit les paroles de plusieurs hymnes du compositeur George Frederick Root, dont Under the Palms, or the Jewish Flower Feast qui devint très populaire en Angleterre.
-Il a publié dix-sept volumes des Zig-Zag Journeys entre 1876 et 1895[1], qui relèvent du genre du travelogue storybook, défini comme : « a narrative in which geography (together with the history, customs, and folklore of nations) is taught by means of an account of the fictional adventures of a child, a family, or some other group »[2], dont 250.000 exemplaires furent vendus[3].
-Il était propriétaire d'une vieille ferme sur le Mont Hope (en) (Bristol, (Rhode Island) et d'un cottage à Belleview en Floride[4].
+Il a publié dix-sept volumes des Zig-Zag Journeys entre 1876 et 1895, qui relèvent du genre du travelogue storybook, défini comme : « a narrative in which geography (together with the history, customs, and folklore of nations) is taught by means of an account of the fictional adventures of a child, a family, or some other group », dont 250.000 exemplaires furent vendus.
+Il était propriétaire d'une vieille ferme sur le Mont Hope (en) (Bristol, (Rhode Island) et d'un cottage à Belleview en Floride.
 </t>
         </is>
       </c>
@@ -549,13 +563,86 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Essais
-Story of the Hymns, 1875 (George Wood Gold Medal de l'American Tract Society (en) en 1876)
-The Story of the Tunes
-Poésie
-Poems for Christmas, Easter and New Year's
-Littérature d'enfance et de jeunesse
-Zig-Zag Journeys, Boston, Estes et Lauriat
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Story of the Hymns, 1875 (George Wood Gold Medal de l'American Tract Society (en) en 1876)
+The Story of the Tunes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hezekiah_Butterworth</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hezekiah_Butterworth</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Poems for Christmas, Easter and New Year's</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hezekiah_Butterworth</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hezekiah_Butterworth</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Zig-Zag Journeys, Boston, Estes et Lauriat
 Knight of Liberty
 In the Boyhood of Lincoln
 Great Composers
